--- a/backend/fms_core/tests/valid_templates/Normalization_planning_v4_8_0_Library.xlsx
+++ b/backend/fms_core/tests/valid_templates/Normalization_planning_v4_8_0_Library.xlsx
@@ -2183,7 +2183,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V1002"/>
+  <dimension ref="A1:V1003"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
@@ -2349,51 +2349,6 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="O6" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="P6" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q6" s="0" t="n">
-        <v>6000</v>
-      </c>
-      <c r="T6" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="V6" s="0" t="n">
-        <v>50</v>
-      </c>
-    </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>30</v>
@@ -2401,13 +2356,13 @@
       <c r="B7" s="2"/>
       <c r="C7" s="13"/>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -2415,7 +2370,7 @@
         <v>34</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K7" s="0" t="s">
         <v>34</v>
@@ -2427,16 +2382,16 @@
         <v>100</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="Q7" s="0" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="T7" s="0" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="V7" s="0" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2446,13 +2401,13 @@
       <c r="B8" s="2"/>
       <c r="C8" s="13"/>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -2460,7 +2415,7 @@
         <v>34</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K8" s="0" t="s">
         <v>34</v>
@@ -2472,32 +2427,61 @@
         <v>100</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="Q8" s="0" t="n">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="T8" s="0" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="V8" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="B9" s="2"/>
       <c r="C9" s="13"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="L9" s="14"/>
-      <c r="Q9" s="0" t="str">
-        <f aca="false">IF(AND($O9&lt;&gt;"",$P9&lt;&gt;""), $O9*$P9, "")</f>
-        <v/>
+      <c r="I9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>8000</v>
+      </c>
+      <c r="T9" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="V9" s="0" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2708,7 +2692,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="13"/>
@@ -5914,7 +5898,9 @@
       <c r="C223" s="13"/>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
-      <c r="I223" s="2"/>
+      <c r="F223" s="2"/>
+      <c r="G223" s="2"/>
+      <c r="H223" s="2"/>
       <c r="J223" s="2"/>
       <c r="L223" s="14"/>
       <c r="Q223" s="0" t="str">
@@ -10604,8 +10590,13 @@
       <c r="C558" s="13"/>
       <c r="D558" s="2"/>
       <c r="E558" s="2"/>
-      <c r="H558" s="2"/>
+      <c r="I558" s="2"/>
       <c r="J558" s="2"/>
+      <c r="L558" s="14"/>
+      <c r="Q558" s="0" t="str">
+        <f aca="false">IF(AND($O558&lt;&gt;"",$P558&lt;&gt;""), $O558*$P558, "")</f>
+        <v/>
+      </c>
     </row>
     <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A559" s="2"/>
@@ -10613,7 +10604,7 @@
       <c r="C559" s="13"/>
       <c r="D559" s="2"/>
       <c r="E559" s="2"/>
-      <c r="G559" s="2"/>
+      <c r="H559" s="2"/>
       <c r="J559" s="2"/>
     </row>
     <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14588,10 +14579,11 @@
     <row r="1001" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1001" s="2"/>
       <c r="B1001" s="2"/>
-      <c r="C1001" s="2"/>
+      <c r="C1001" s="13"/>
       <c r="D1001" s="2"/>
       <c r="E1001" s="2"/>
       <c r="G1001" s="2"/>
+      <c r="J1001" s="2"/>
     </row>
     <row r="1002" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1002" s="2"/>
@@ -14601,9 +14593,17 @@
       <c r="E1002" s="2"/>
       <c r="G1002" s="2"/>
     </row>
+    <row r="1003" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1003" s="2"/>
+      <c r="B1003" s="2"/>
+      <c r="C1003" s="2"/>
+      <c r="D1003" s="2"/>
+      <c r="E1003" s="2"/>
+      <c r="G1003" s="2"/>
+    </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L6:L557" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L7:L558" type="list">
       <formula1>Index!$A$2:$A$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -14611,19 +14611,19 @@
       <formula1>Index!$J$2:$J$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A6:A1000" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A7:A1001" type="list">
       <formula1>Index!$B$2:$B$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B6:B1000" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B7:B1001" type="list">
       <formula1>Index!$C$2:$C$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J6:J1000" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J7:J1001" type="list">
       <formula1>IF($L6="384-well plate",Index!$H$2:$H$385,IF($L6="96-well plate", Index!$F$2:$F$97, Index!$H$2:$H$385))</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C6:C1000" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C7:C1001" type="list">
       <formula1>Index!$K$2</formula1>
       <formula2>0</formula2>
     </dataValidation>
